--- a/AngularSpaAdds/JS-SPA-Self-Evaluation-Protocol.xlsx
+++ b/AngularSpaAdds/JS-SPA-Self-Evaluation-Protocol.xlsx
@@ -396,10 +396,10 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -685,8 +685,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:E51"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+    <sheetView tabSelected="1" topLeftCell="A6" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="E26" sqref="E26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -750,17 +750,19 @@
       <c r="B7" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="C7" s="21" t="s">
+      <c r="C7" s="20" t="s">
         <v>59</v>
       </c>
-      <c r="D7" s="20"/>
-      <c r="E7" s="20"/>
+      <c r="D7" s="21"/>
+      <c r="E7" s="21"/>
     </row>
     <row r="8" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B8" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C8" s="6"/>
+      <c r="C8" s="6">
+        <v>8</v>
+      </c>
       <c r="D8" s="12" t="s">
         <v>56</v>
       </c>
@@ -770,7 +772,9 @@
       <c r="B9" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C9" s="6"/>
+      <c r="C9" s="6">
+        <v>53</v>
+      </c>
       <c r="D9" s="12" t="s">
         <v>56</v>
       </c>
@@ -789,7 +793,7 @@
         <v>2</v>
       </c>
       <c r="C11" s="5">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="D11" s="5" t="s">
         <v>3</v>
@@ -801,7 +805,7 @@
         <v>4</v>
       </c>
       <c r="C12" s="5">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D12" s="5" t="s">
         <v>5</v>
@@ -836,7 +840,9 @@
       <c r="B15" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="C15" s="5"/>
+      <c r="C15" s="5">
+        <v>4</v>
+      </c>
       <c r="D15" s="5" t="s">
         <v>5</v>
       </c>
@@ -870,7 +876,9 @@
       <c r="B18" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C18" s="5"/>
+      <c r="C18" s="5">
+        <v>5</v>
+      </c>
       <c r="D18" s="5" t="s">
         <v>5</v>
       </c>
@@ -880,7 +888,9 @@
       <c r="B19" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C19" s="5"/>
+      <c r="C19" s="5">
+        <v>10</v>
+      </c>
       <c r="D19" s="5" t="s">
         <v>3</v>
       </c>
@@ -890,7 +900,9 @@
       <c r="B20" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C20" s="5"/>
+      <c r="C20" s="5">
+        <v>5</v>
+      </c>
       <c r="D20" s="5" t="s">
         <v>5</v>
       </c>
@@ -900,7 +912,9 @@
       <c r="B21" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="C21" s="5"/>
+      <c r="C21" s="5">
+        <v>5</v>
+      </c>
       <c r="D21" s="5" t="s">
         <v>5</v>
       </c>
@@ -910,7 +924,9 @@
       <c r="B22" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="C22" s="5"/>
+      <c r="C22" s="5">
+        <v>5</v>
+      </c>
       <c r="D22" s="5" t="s">
         <v>5</v>
       </c>
@@ -932,7 +948,9 @@
       <c r="B24" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="C24" s="5"/>
+      <c r="C24" s="5">
+        <v>5</v>
+      </c>
       <c r="D24" s="5" t="s">
         <v>5</v>
       </c>
@@ -942,7 +960,9 @@
       <c r="B25" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="C25" s="5"/>
+      <c r="C25" s="5">
+        <v>5</v>
+      </c>
       <c r="D25" s="5" t="s">
         <v>5</v>
       </c>
@@ -952,7 +972,9 @@
       <c r="B26" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="C26" s="5"/>
+      <c r="C26" s="5">
+        <v>10</v>
+      </c>
       <c r="D26" s="5" t="s">
         <v>3</v>
       </c>
@@ -962,7 +984,9 @@
       <c r="B27" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="C27" s="5"/>
+      <c r="C27" s="5">
+        <v>5</v>
+      </c>
       <c r="D27" s="5" t="s">
         <v>5</v>
       </c>
@@ -972,7 +996,9 @@
       <c r="B28" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="C28" s="5"/>
+      <c r="C28" s="5">
+        <v>5</v>
+      </c>
       <c r="D28" s="5" t="s">
         <v>5</v>
       </c>
@@ -982,7 +1008,9 @@
       <c r="B29" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="C29" s="5"/>
+      <c r="C29" s="5">
+        <v>5</v>
+      </c>
       <c r="D29" s="5" t="s">
         <v>5</v>
       </c>
@@ -992,7 +1020,9 @@
       <c r="B30" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="C30" s="5"/>
+      <c r="C30" s="5">
+        <v>5</v>
+      </c>
       <c r="D30" s="5" t="s">
         <v>5</v>
       </c>
@@ -1014,7 +1044,9 @@
       <c r="B32" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="C32" s="5"/>
+      <c r="C32" s="5">
+        <v>5</v>
+      </c>
       <c r="D32" s="5" t="s">
         <v>5</v>
       </c>
@@ -1204,7 +1236,7 @@
       </c>
       <c r="C51" s="11">
         <f>SUM(C6:C50)</f>
-        <v>42</v>
+        <v>188</v>
       </c>
       <c r="D51" s="11">
         <v>430</v>

--- a/AngularSpaAdds/JS-SPA-Self-Evaluation-Protocol.xlsx
+++ b/AngularSpaAdds/JS-SPA-Self-Evaluation-Protocol.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="61">
   <si>
     <t>Days Commit in GitHub</t>
   </si>
@@ -204,6 +204,9 @@
   </si>
   <si>
     <t>https://github.com/g-stoyanov</t>
+  </si>
+  <si>
+    <t>Yes</t>
   </si>
 </sst>
 </file>
@@ -685,8 +688,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:E51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="E26" sqref="E26"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="C36" sqref="C36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -773,7 +776,7 @@
         <v>1</v>
       </c>
       <c r="C9" s="6">
-        <v>53</v>
+        <v>64</v>
       </c>
       <c r="D9" s="12" t="s">
         <v>56</v>
@@ -841,7 +844,7 @@
         <v>16</v>
       </c>
       <c r="C15" s="5">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D15" s="5" t="s">
         <v>5</v>
@@ -1064,7 +1067,9 @@
       <c r="B34" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="C34" s="7"/>
+      <c r="C34" s="7" t="s">
+        <v>60</v>
+      </c>
       <c r="D34" s="7" t="s">
         <v>28</v>
       </c>
@@ -1074,7 +1079,9 @@
       <c r="B35" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="C35" s="7"/>
+      <c r="C35" s="7" t="s">
+        <v>60</v>
+      </c>
       <c r="D35" s="7" t="s">
         <v>28</v>
       </c>
@@ -1084,7 +1091,9 @@
       <c r="B36" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="C36" s="7"/>
+      <c r="C36" s="7" t="s">
+        <v>60</v>
+      </c>
       <c r="D36" s="7" t="s">
         <v>28</v>
       </c>
@@ -1236,7 +1245,7 @@
       </c>
       <c r="C51" s="11">
         <f>SUM(C6:C50)</f>
-        <v>188</v>
+        <v>200</v>
       </c>
       <c r="D51" s="11">
         <v>430</v>
